--- a/medicine/Enfance/Illui/Illui.xlsx
+++ b/medicine/Enfance/Illui/Illui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Illui (hébreu : עילוי ou עלוי ou encore ilui et au pluriell: illuim) est l'appellation donnée dans le judaïsme orthodoxe à un jeune prodige.
-Illui est un nom (signifiant "au dessus de," "élévation," provenant de la racine  על signifiant "en haut" ou "au dessus de" [1]), en hébreu.
+Illui est un nom (signifiant "au dessus de," "élévation," provenant de la racine  על signifiant "en haut" ou "au dessus de" ), en hébreu.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Illuim</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Samuel Belkin
 Yitzchok Hutner
-Aharon Kotler[2]
+Aharon Kotler
 Chava Shapiro
 Elazar Shach
 Yitzchak Elchanan Spektor</t>
